--- a/artfynd/A 40983-2023.xlsx
+++ b/artfynd/A 40983-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112420569</v>
+        <v>112420515</v>
       </c>
       <c r="B2" t="n">
-        <v>56446</v>
+        <v>56575</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,42 +696,42 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100049</v>
+        <v>103021</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Mollsjönäs, Vg</t>
+          <t>Djupevik, Vg</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>330675</v>
+        <v>330639</v>
       </c>
       <c r="R2" t="n">
-        <v>6417949</v>
+        <v>6418084</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -764,11 +764,6 @@
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-17</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Vid roten av ett talltorrträd som stod på hällmark hade spillkråkan födosökt.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -795,7 +790,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112420906</v>
+        <v>112420569</v>
       </c>
       <c r="B3" t="n">
         <v>56446</v>
@@ -839,14 +834,14 @@
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Djupevik, Vg</t>
+          <t>Mollsjönäs, Vg</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>330936</v>
+        <v>330675</v>
       </c>
       <c r="R3" t="n">
-        <v>6418085</v>
+        <v>6417949</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -883,7 +878,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Spillkråkan hade födosökt vid stambasen hos en tallhögstubbe nära dubbelrönnen vid bäcken.</t>
+          <t>Vid roten av ett talltorrträd som stod på hällmark hade spillkråkan födosökt.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -910,10 +905,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112420515</v>
+        <v>112420906</v>
       </c>
       <c r="B4" t="n">
-        <v>56575</v>
+        <v>56446</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,31 +921,31 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103021</v>
+        <v>100049</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -958,10 +953,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>330639</v>
+        <v>330936</v>
       </c>
       <c r="R4" t="n">
-        <v>6418084</v>
+        <v>6418085</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -994,6 +989,11 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Spillkråkan hade födosökt vid stambasen hos en tallhögstubbe nära dubbelrönnen vid bäcken.</t>
         </is>
       </c>
       <c r="AD4" t="b">
